--- a/data/stat probs/sam merrill stat probs - condition.xlsx
+++ b/data/stat probs/sam merrill stat probs - condition.xlsx
@@ -19,24 +19,24 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 before 2023 full" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 regular" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 full" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="orl 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="orl 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11 after 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11 after 2023 full" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hou 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hou 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11 before 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11 before 2023 full" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12 after 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12 after 2023 full" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12 before 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12 before 2023 full" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10 after 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10 after 2023 full" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="orl 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="orl 2023 full" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11 after 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11 after 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hou 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hou 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11 before 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11 before 2023 full" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12 after 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12 after 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12 before 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12 before 2023 full" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10 after 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10 after 2023 full" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="30" state="visible" r:id="rId30"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 regular" sheetId="31" state="visible" r:id="rId31"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 full" sheetId="32" state="visible" r:id="rId32"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10 before 2023 regular" sheetId="33" state="visible" r:id="rId33"/>
@@ -523,28 +523,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -1165,28 +1165,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -1807,28 +1807,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2449,28 +2449,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -3028,7 +3028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3091,28 +3091,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -3141,10 +3141,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3155,28 +3155,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3187,28 +3187,28 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -3219,16 +3219,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3251,10 +3251,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -3304,358 +3304,6 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>50</v>
-      </c>
-      <c r="D9" t="n">
-        <v>50</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>50</v>
-      </c>
-      <c r="D10" t="n">
-        <v>50</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>50</v>
-      </c>
-      <c r="D11" t="n">
-        <v>50</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D12" t="n">
-        <v>50</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D13" t="n">
-        <v>50</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>50</v>
-      </c>
-      <c r="D14" t="n">
-        <v>50</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>50</v>
-      </c>
-      <c r="D15" t="n">
-        <v>50</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>50</v>
-      </c>
-      <c r="D16" t="n">
-        <v>50</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>50</v>
-      </c>
-      <c r="D17" t="n">
-        <v>50</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>50</v>
-      </c>
-      <c r="D18" t="n">
-        <v>50</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>50</v>
-      </c>
-      <c r="D19" t="n">
-        <v>50</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3670,7 +3318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3733,28 +3381,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -3765,10 +3413,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -3783,10 +3431,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3797,28 +3445,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3829,28 +3477,28 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -3861,16 +3509,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3893,10 +3541,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -3925,10 +3573,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -3946,358 +3594,6 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>50</v>
-      </c>
-      <c r="D9" t="n">
-        <v>50</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>50</v>
-      </c>
-      <c r="D10" t="n">
-        <v>50</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>50</v>
-      </c>
-      <c r="D11" t="n">
-        <v>50</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D12" t="n">
-        <v>50</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D13" t="n">
-        <v>50</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>50</v>
-      </c>
-      <c r="D14" t="n">
-        <v>50</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>50</v>
-      </c>
-      <c r="D15" t="n">
-        <v>50</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>50</v>
-      </c>
-      <c r="D16" t="n">
-        <v>50</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>50</v>
-      </c>
-      <c r="D17" t="n">
-        <v>50</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>50</v>
-      </c>
-      <c r="D18" t="n">
-        <v>50</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>50</v>
-      </c>
-      <c r="D19" t="n">
-        <v>50</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4375,28 +3671,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4665,28 +3961,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4955,28 +4251,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -5245,28 +4541,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -5472,7 +4768,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5541,16 +4837,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -5567,10 +4863,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -5585,169 +4881,9 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>100</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>100</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>100</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>100</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
         <v>100</v>
       </c>
     </row>
@@ -5825,28 +4961,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -6404,7 +5540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6473,16 +5609,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -6499,10 +5635,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -6517,169 +5653,9 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>100</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>100</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>100</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>100</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
         <v>100</v>
       </c>
     </row>
@@ -6763,16 +5739,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -6893,16 +5869,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -7023,16 +5999,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -7153,16 +6129,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -7214,7 +6190,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7299,38 +6275,6 @@
       </c>
       <c r="J2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>100</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -7344,7 +6288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7429,38 +6373,6 @@
       </c>
       <c r="J2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>100</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -7831,28 +6743,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -8571,10 +7483,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -8733,10 +7645,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -8895,10 +7807,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -9057,10 +7969,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -9219,10 +8131,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -9381,10 +8293,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -9543,28 +8455,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -10185,28 +9097,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -10475,28 +9387,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -10765,28 +9677,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -11407,28 +10319,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -12049,28 +10961,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
